--- a/Experimental Results.xlsx
+++ b/Experimental Results.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Missed Annotations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Limitations of Framework</t>
   </si>
@@ -47,13 +44,25 @@
     <t>Nullness</t>
   </si>
   <si>
-    <t>Explicit Checks Added</t>
-  </si>
-  <si>
     <t>Target Application</t>
   </si>
   <si>
     <t>SharpChecker</t>
+  </si>
+  <si>
+    <t>EventHub</t>
+  </si>
+  <si>
+    <t>Explicit Checks/Assertions Added</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Null reference exceptions were occurring when analyzing EventHub, and the class hierarchy issue was uncovered as a result of the method override checking (a little stretch).</t>
+  </si>
+  <si>
+    <t>There is an invocation which should be presenting a diagnostic, but is not.  It may be that that project is not being analzyed properly.</t>
   </si>
 </sst>
 </file>
@@ -89,8 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,27 +383,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H4"/>
+  <dimension ref="A3:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="62.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -409,24 +421,66 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4368</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>7</v>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>268144</v>
+      </c>
+      <c r="E5">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4">
+      <c r="F5" t="s">
         <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experimental Results.xlsx
+++ b/Experimental Results.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A3:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,13 +441,13 @@
         <v>4368</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>

--- a/Experimental Results.xlsx
+++ b/Experimental Results.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A3:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>

--- a/Experimental Results.xlsx
+++ b/Experimental Results.xlsx
@@ -62,7 +62,7 @@
     <t>Null reference exceptions were occurring when analyzing EventHub, and the class hierarchy issue was uncovered as a result of the method override checking (a little stretch).</t>
   </si>
   <si>
-    <t>There is an invocation which should be presenting a diagnostic, but is not.  It may be that that project is not being analzyed properly.</t>
+    <t>There is an invocation which should be presenting a diagnostic, but is not.  It may be that that project is not being analzyed properly.  I found that the Inteface needed to be annotated.  Also, async was not being properly analyzed.</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A3:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>

--- a/Experimental Results.xlsx
+++ b/Experimental Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Limitations of Framework</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>There is an invocation which should be presenting a diagnostic, but is not.  It may be that that project is not being analzyed properly.  I found that the Inteface needed to be annotated.  Also, async was not being properly analyzed.</t>
+  </si>
+  <si>
+    <t>RijndaelEncryption</t>
+  </si>
+  <si>
+    <t>Encrypted</t>
   </si>
 </sst>
 </file>
@@ -383,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H5"/>
+  <dimension ref="A3:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,6 +485,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experimental Results.xlsx
+++ b/Experimental Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Limitations of Framework</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Lines of Code</t>
   </si>
   <si>
-    <t>Number of Annotations</t>
-  </si>
-  <si>
-    <t>Type System</t>
-  </si>
-  <si>
     <t>Nullness</t>
   </si>
   <si>
@@ -50,12 +44,6 @@
     <t>SharpChecker</t>
   </si>
   <si>
-    <t>EventHub</t>
-  </si>
-  <si>
-    <t>Explicit Checks/Assertions Added</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -69,6 +57,54 @@
   </si>
   <si>
     <t>Encrypted</t>
+  </si>
+  <si>
+    <t>EventCloud</t>
+  </si>
+  <si>
+    <t>Checker</t>
+  </si>
+  <si>
+    <t>Assertions</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>SCBaseAnalyzer</t>
+  </si>
+  <si>
+    <t>EncryptedAnalyzer</t>
+  </si>
+  <si>
+    <t>NullnessAnalyzer</t>
+  </si>
+  <si>
+    <t>TaintedAnalzyer</t>
+  </si>
+  <si>
+    <t>SCBaseSyntaxWalker</t>
+  </si>
+  <si>
+    <t>TaintedSyntaxWalker</t>
+  </si>
+  <si>
+    <t>NullnessSyntaxWalker</t>
+  </si>
+  <si>
+    <t>EncryptedSyntaxWalker</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Analyzer Classes - Lines of Code</t>
+  </si>
+  <si>
+    <t>Syntax Walker Classes - Lines of Code</t>
   </si>
 </sst>
 </file>
@@ -104,10 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -124,6 +163,1893 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analyzer Classes - Lines of Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$10:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SCBaseAnalyzer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NullnessAnalyzer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TaintedAnalzyer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EncryptedAnalyzer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="205832256"/>
+        <c:axId val="205828728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="205832256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205828728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="205828728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205832256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Syntax Walker Classes - Lines of Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$16:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SCBaseSyntaxWalker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NullnessSyntaxWalker</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TaintedSyntaxWalker</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EncryptedSyntaxWalker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="205834608"/>
+        <c:axId val="205827160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="205834608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205827160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="205827160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205834608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>366711</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>366711</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,127 +2315,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H6"/>
+  <dimension ref="A3:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="62.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4368</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>4368</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>268144</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>268144</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Experimental Results.xlsx
+++ b/Experimental Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Limitations of Framework</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Syntax Walker Classes - Lines of Code</t>
+  </si>
+  <si>
+    <t>Tainted</t>
+  </si>
+  <si>
+    <t>We would have liked to have annotated a library, but we do not have a mechanism for doing this.  We were essentially able to move back the boundary, but this resulted in more annotations then would otherwise have been necessary.  The boolean literal should be considered Untainted.  The result of an awaited invocation expression was a call to a library method, so the return type could not be annotated.  We had to use a temporary variable in order to add the appropriate assertion.</t>
   </si>
 </sst>
 </file>
@@ -194,10 +200,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -221,7 +228,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$9</c:f>
+              <c:f>Sheet1!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -231,26 +238,48 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
                 <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1"/>
+                </a:innerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$10:$A$13</c:f>
+              <c:f>Sheet1!$A$21:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -270,7 +299,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$13</c:f>
+              <c:f>Sheet1!$B$21:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -291,6 +320,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -298,8 +328,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:overlap val="-50"/>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
         <c:axId val="205832256"/>
         <c:axId val="205828728"/>
       </c:barChart>
@@ -310,39 +340,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -353,8 +364,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -379,31 +391,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -422,8 +409,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -452,14 +440,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -515,10 +500,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -542,7 +528,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$15</c:f>
+              <c:f>Sheet1!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -552,26 +538,48 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
                 <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1"/>
+                </a:innerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$16:$A$19</c:f>
+              <c:f>Sheet1!$A$27:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -591,7 +599,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$19</c:f>
+              <c:f>Sheet1!$B$27:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -612,6 +620,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -619,8 +628,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:overlap val="-50"/>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
         <c:axId val="205834608"/>
         <c:axId val="205827160"/>
       </c:barChart>
@@ -631,39 +640,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -674,8 +664,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -700,31 +691,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -743,8 +709,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -773,14 +740,641 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19778423653109997"/>
+          <c:y val="0.20300198516725279"/>
+          <c:w val="0.7599659193641265"/>
+          <c:h val="0.6606990974537813"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analyzer Classes - Lines of Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$21:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SCBaseAnalyzer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NullnessAnalyzer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TaintedAnalzyer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EncryptedAnalyzer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="205827552"/>
+        <c:axId val="205830688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="205827552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205830688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="205830688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205827552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Syntax Walker Classes - Lines of Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SCBaseSyntaxWalker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NullnessSyntaxWalker</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TaintedSyntaxWalker</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EncryptedSyntaxWalker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="205833824"/>
+        <c:axId val="205830296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="205833824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205830296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="205830296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205833824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -887,15 +1481,96 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="217">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
@@ -905,13 +1580,220 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -925,9 +1807,330 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="217">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -942,8 +2145,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -953,10 +2157,638 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -965,6 +2797,360 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -972,131 +3158,70 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1112,16 +3237,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1133,380 +3256,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="10800000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst/>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1515,190 +3265,13 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1707,16 +3280,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1725,13 +3299,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1743,7 +3317,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1751,30 +3325,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="10800000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst/>
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
@@ -1782,30 +3344,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1814,16 +3362,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1832,16 +3381,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1850,9 +3399,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -1861,7 +3408,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -1869,7 +3416,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1877,10 +3424,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1888,16 +3444,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1906,11 +3463,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1919,15 +3474,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1936,9 +3490,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1947,21 +3499,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1970,9 +3520,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1981,7 +3529,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1993,14 +3541,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>366711</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2022,15 +3570,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>366711</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>366710</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2044,6 +3592,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2315,10 +3923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H19"/>
+  <dimension ref="A3:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,158 +3967,184 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4368</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4368</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>268144</v>
       </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
       <c r="D6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>268144</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B21">
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
+      <c r="B22">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
+      <c r="B23">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B24">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B27">
         <v>618</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B28">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B29">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
     </row>
